--- a/MyWorkingFiles/CaseStudies/AnalyzingUSVoterDemographics.xlsx
+++ b/MyWorkingFiles/CaseStudies/AnalyzingUSVoterDemographics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11869e041bd61be8/Documents/DataAnalyticsHome/Udemy/Excel-PivotTables/MyWorkingFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11869e041bd61be8/Documents/DataAnalyticsHome/Udemy/Excel-PivotTables/MyWorkingFiles/CaseStudies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{99905A44-199E-F44A-8255-F7744D951557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868E64B5-7C91-4C0A-BFF6-42AA218F2721}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{99905A44-199E-F44A-8255-F7744D951557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDBE1BDF-634F-417A-9809-956CF08C6818}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -245,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -756,12 +756,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -808,7 +809,40 @@
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -828,19 +862,13 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <fill>
@@ -859,8 +887,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotTable Style 1" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3725,62 +3753,62 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ECAC389-5562-B24C-B9AB-8FE12DD33A65}" name="PivotTable24" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ECAC389-5562-B24C-B9AB-8FE12DD33A65}" name="PivotTable24" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E310" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="52">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
         <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4284,6 +4312,816 @@
   </rowFields>
   <rowItems count="307">
     <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
       <x v="42"/>
     </i>
     <i r="1">
@@ -4302,7 +5140,7 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="43"/>
     </i>
     <i r="1">
       <x/>
@@ -4320,9 +5158,27 @@
       <x v="4"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
@@ -4338,7 +5194,7 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x/>
@@ -4356,835 +5212,7 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
       <x v="48"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i r="1">
       <x/>
@@ -5225,7 +5253,7 @@
   <dataFields count="4">
     <dataField name="Sum of Citizen Population" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of Confirmed Voters" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Voter Population %" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of Voter Population %" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of Confirmed Voters2" fld="5" baseField="0" baseItem="0" numFmtId="10">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
@@ -5235,7 +5263,7 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5244,7 +5272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5253,7 +5281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="17">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5276,7 +5304,760 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33571A8F-0512-6A4E-8F02-F16E09D0634A}" name="Homework #5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9B9AA7D-C1F5-AC44-99FE-DC1369BAC274}" name="Homework #1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="52">
+        <item x="50"/>
+        <item x="49"/>
+        <item x="48"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="236">
+        <item x="233"/>
+        <item x="211"/>
+        <item x="5"/>
+        <item x="163"/>
+        <item x="41"/>
+        <item x="212"/>
+        <item x="9"/>
+        <item x="43"/>
+        <item x="234"/>
+        <item x="213"/>
+        <item x="35"/>
+        <item x="124"/>
+        <item x="7"/>
+        <item x="166"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="54"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="37"/>
+        <item x="6"/>
+        <item x="126"/>
+        <item x="164"/>
+        <item x="187"/>
+        <item x="92"/>
+        <item x="139"/>
+        <item x="59"/>
+        <item x="188"/>
+        <item x="42"/>
+        <item x="198"/>
+        <item x="93"/>
+        <item x="40"/>
+        <item x="125"/>
+        <item x="141"/>
+        <item x="39"/>
+        <item x="140"/>
+        <item x="94"/>
+        <item x="129"/>
+        <item x="56"/>
+        <item x="55"/>
+        <item x="190"/>
+        <item x="224"/>
+        <item x="149"/>
+        <item x="143"/>
+        <item x="60"/>
+        <item x="8"/>
+        <item x="128"/>
+        <item x="61"/>
+        <item x="165"/>
+        <item x="214"/>
+        <item x="62"/>
+        <item x="197"/>
+        <item x="225"/>
+        <item x="58"/>
+        <item x="131"/>
+        <item x="130"/>
+        <item x="38"/>
+        <item x="226"/>
+        <item x="152"/>
+        <item x="72"/>
+        <item x="136"/>
+        <item x="150"/>
+        <item x="127"/>
+        <item x="133"/>
+        <item x="77"/>
+        <item x="208"/>
+        <item x="79"/>
+        <item x="189"/>
+        <item x="15"/>
+        <item x="114"/>
+        <item x="134"/>
+        <item x="209"/>
+        <item x="30"/>
+        <item x="116"/>
+        <item x="135"/>
+        <item x="57"/>
+        <item x="172"/>
+        <item x="31"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="138"/>
+        <item x="74"/>
+        <item x="78"/>
+        <item x="81"/>
+        <item x="177"/>
+        <item x="73"/>
+        <item x="32"/>
+        <item x="115"/>
+        <item x="178"/>
+        <item x="95"/>
+        <item x="118"/>
+        <item x="142"/>
+        <item x="87"/>
+        <item x="174"/>
+        <item x="0"/>
+        <item x="82"/>
+        <item x="76"/>
+        <item x="132"/>
+        <item x="19"/>
+        <item x="191"/>
+        <item x="25"/>
+        <item x="83"/>
+        <item x="176"/>
+        <item x="227"/>
+        <item x="192"/>
+        <item x="179"/>
+        <item x="34"/>
+        <item x="109"/>
+        <item x="220"/>
+        <item x="228"/>
+        <item x="119"/>
+        <item x="89"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="173"/>
+        <item x="10"/>
+        <item x="151"/>
+        <item x="88"/>
+        <item x="67"/>
+        <item x="193"/>
+        <item x="91"/>
+        <item x="210"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="97"/>
+        <item x="110"/>
+        <item x="26"/>
+        <item x="181"/>
+        <item x="137"/>
+        <item x="86"/>
+        <item x="215"/>
+        <item x="27"/>
+        <item x="96"/>
+        <item x="100"/>
+        <item x="121"/>
+        <item x="111"/>
+        <item x="4"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="18"/>
+        <item x="101"/>
+        <item x="144"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="80"/>
+        <item x="117"/>
+        <item x="200"/>
+        <item x="123"/>
+        <item x="113"/>
+        <item x="199"/>
+        <item x="158"/>
+        <item x="102"/>
+        <item x="99"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="120"/>
+        <item x="75"/>
+        <item x="71"/>
+        <item x="145"/>
+        <item x="232"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="217"/>
+        <item x="105"/>
+        <item x="221"/>
+        <item x="146"/>
+        <item x="53"/>
+        <item x="180"/>
+        <item x="104"/>
+        <item x="175"/>
+        <item x="33"/>
+        <item x="202"/>
+        <item x="159"/>
+        <item x="216"/>
+        <item x="223"/>
+        <item x="219"/>
+        <item x="167"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="107"/>
+        <item x="182"/>
+        <item x="50"/>
+        <item x="85"/>
+        <item x="160"/>
+        <item x="90"/>
+        <item x="148"/>
+        <item x="51"/>
+        <item x="169"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="194"/>
+        <item x="168"/>
+        <item x="162"/>
+        <item x="112"/>
+        <item x="183"/>
+        <item x="98"/>
+        <item x="44"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="13"/>
+        <item x="231"/>
+        <item x="201"/>
+        <item x="66"/>
+        <item x="222"/>
+        <item x="171"/>
+        <item x="103"/>
+        <item x="122"/>
+        <item x="70"/>
+        <item x="153"/>
+        <item x="155"/>
+        <item x="185"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="218"/>
+        <item x="154"/>
+        <item x="147"/>
+        <item x="203"/>
+        <item x="161"/>
+        <item x="157"/>
+        <item x="52"/>
+        <item x="108"/>
+        <item x="207"/>
+        <item x="205"/>
+        <item x="204"/>
+        <item x="170"/>
+        <item x="48"/>
+        <item x="20"/>
+        <item x="184"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="156"/>
+        <item x="47"/>
+        <item x="206"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="226">
+        <item x="221"/>
+        <item x="5"/>
+        <item x="201"/>
+        <item x="55"/>
+        <item x="202"/>
+        <item x="182"/>
+        <item x="153"/>
+        <item x="35"/>
+        <item x="222"/>
+        <item x="213"/>
+        <item x="40"/>
+        <item x="59"/>
+        <item x="154"/>
+        <item x="173"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="183"/>
+        <item x="42"/>
+        <item x="44"/>
+        <item x="174"/>
+        <item x="224"/>
+        <item x="125"/>
+        <item x="122"/>
+        <item x="121"/>
+        <item x="140"/>
+        <item x="37"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="204"/>
+        <item x="175"/>
+        <item x="89"/>
+        <item x="77"/>
+        <item x="132"/>
+        <item x="131"/>
+        <item x="223"/>
+        <item x="185"/>
+        <item x="196"/>
+        <item x="43"/>
+        <item x="90"/>
+        <item x="41"/>
+        <item x="177"/>
+        <item x="126"/>
+        <item x="214"/>
+        <item x="39"/>
+        <item x="73"/>
+        <item x="8"/>
+        <item x="30"/>
+        <item x="127"/>
+        <item x="155"/>
+        <item x="141"/>
+        <item x="60"/>
+        <item x="203"/>
+        <item x="134"/>
+        <item x="58"/>
+        <item x="16"/>
+        <item x="184"/>
+        <item x="124"/>
+        <item x="0"/>
+        <item x="129"/>
+        <item x="62"/>
+        <item x="198"/>
+        <item x="82"/>
+        <item x="38"/>
+        <item x="79"/>
+        <item x="92"/>
+        <item x="78"/>
+        <item x="86"/>
+        <item x="31"/>
+        <item x="160"/>
+        <item x="176"/>
+        <item x="164"/>
+        <item x="112"/>
+        <item x="123"/>
+        <item x="197"/>
+        <item x="200"/>
+        <item x="57"/>
+        <item x="128"/>
+        <item x="68"/>
+        <item x="17"/>
+        <item x="186"/>
+        <item x="161"/>
+        <item x="165"/>
+        <item x="114"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="83"/>
+        <item x="74"/>
+        <item x="178"/>
+        <item x="93"/>
+        <item x="61"/>
+        <item x="215"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="135"/>
+        <item x="113"/>
+        <item x="81"/>
+        <item x="216"/>
+        <item x="11"/>
+        <item x="205"/>
+        <item x="179"/>
+        <item x="166"/>
+        <item x="91"/>
+        <item x="107"/>
+        <item x="133"/>
+        <item x="97"/>
+        <item x="2"/>
+        <item x="116"/>
+        <item x="88"/>
+        <item x="180"/>
+        <item x="163"/>
+        <item x="50"/>
+        <item x="34"/>
+        <item x="69"/>
+        <item x="26"/>
+        <item x="76"/>
+        <item x="87"/>
+        <item x="199"/>
+        <item x="130"/>
+        <item x="12"/>
+        <item x="108"/>
+        <item x="148"/>
+        <item x="142"/>
+        <item x="94"/>
+        <item x="102"/>
+        <item x="187"/>
+        <item x="63"/>
+        <item x="188"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="118"/>
+        <item x="29"/>
+        <item x="217"/>
+        <item x="18"/>
+        <item x="117"/>
+        <item x="98"/>
+        <item x="27"/>
+        <item x="4"/>
+        <item x="136"/>
+        <item x="109"/>
+        <item x="209"/>
+        <item x="168"/>
+        <item x="156"/>
+        <item x="218"/>
+        <item x="99"/>
+        <item x="80"/>
+        <item x="137"/>
+        <item x="120"/>
+        <item x="96"/>
+        <item x="115"/>
+        <item x="191"/>
+        <item x="210"/>
+        <item x="75"/>
+        <item x="162"/>
+        <item x="206"/>
+        <item x="14"/>
+        <item x="72"/>
+        <item x="111"/>
+        <item x="45"/>
+        <item x="103"/>
+        <item x="207"/>
+        <item x="54"/>
+        <item x="149"/>
+        <item x="33"/>
+        <item x="220"/>
+        <item x="190"/>
+        <item x="51"/>
+        <item x="167"/>
+        <item x="143"/>
+        <item x="52"/>
+        <item x="84"/>
+        <item x="101"/>
+        <item x="104"/>
+        <item x="157"/>
+        <item x="208"/>
+        <item x="169"/>
+        <item x="212"/>
+        <item x="150"/>
+        <item x="139"/>
+        <item x="64"/>
+        <item x="181"/>
+        <item x="65"/>
+        <item x="13"/>
+        <item x="189"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="95"/>
+        <item x="152"/>
+        <item x="110"/>
+        <item x="211"/>
+        <item x="67"/>
+        <item x="145"/>
+        <item x="106"/>
+        <item x="144"/>
+        <item x="119"/>
+        <item x="47"/>
+        <item x="159"/>
+        <item x="219"/>
+        <item x="71"/>
+        <item x="192"/>
+        <item x="172"/>
+        <item x="100"/>
+        <item x="20"/>
+        <item x="193"/>
+        <item x="138"/>
+        <item x="147"/>
+        <item x="151"/>
+        <item x="53"/>
+        <item x="105"/>
+        <item x="195"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="158"/>
+        <item x="66"/>
+        <item x="49"/>
+        <item x="171"/>
+        <item x="24"/>
+        <item x="146"/>
+        <item x="48"/>
+        <item x="194"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="52">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Voter Population %" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33571A8F-0512-6A4E-8F02-F16E09D0634A}" name="Homework #5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="T5:U57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6244,10 +7025,10 @@
     <dataField name="Sum of Voter Turnout" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6263,8 +7044,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{996FB924-40A9-3449-B943-92D69E099AE4}" name="Homework #4b" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{996FB924-40A9-3449-B943-92D69E099AE4}" name="Homework #4b" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q3:R55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -7232,10 +8013,10 @@
     <dataField name="Sum of Voter Turnout" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7251,8 +8032,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83F32751-9740-6441-A35B-1F9F09D0F6D0}" name="Homework #4a" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83F32751-9740-6441-A35B-1F9F09D0F6D0}" name="Homework #4a" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N3:O55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -8217,10 +8998,10 @@
     <dataField name="Sum of Voter Turnout" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8236,8 +9017,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFB278F7-F10F-3E4F-BEB1-5D26B3438566}" name="Homework #3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FFB278F7-F10F-3E4F-BEB1-5D26B3438566}" name="Homework #3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:L9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0" sortType="ascending">
@@ -9079,8 +9860,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87F221F5-7820-BC42-BC7D-320BD5C3F711}" name="Homework #2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87F221F5-7820-BC42-BC7D-320BD5C3F711}" name="Homework #2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:G310" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -10832,759 +11613,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9B9AA7D-C1F5-AC44-99FE-DC1369BAC274}" name="Homework #1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="52">
-        <item x="50"/>
-        <item x="49"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="236">
-        <item x="233"/>
-        <item x="211"/>
-        <item x="5"/>
-        <item x="163"/>
-        <item x="41"/>
-        <item x="212"/>
-        <item x="9"/>
-        <item x="43"/>
-        <item x="234"/>
-        <item x="213"/>
-        <item x="35"/>
-        <item x="124"/>
-        <item x="7"/>
-        <item x="166"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="54"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="126"/>
-        <item x="164"/>
-        <item x="187"/>
-        <item x="92"/>
-        <item x="139"/>
-        <item x="59"/>
-        <item x="188"/>
-        <item x="42"/>
-        <item x="198"/>
-        <item x="93"/>
-        <item x="40"/>
-        <item x="125"/>
-        <item x="141"/>
-        <item x="39"/>
-        <item x="140"/>
-        <item x="94"/>
-        <item x="129"/>
-        <item x="56"/>
-        <item x="55"/>
-        <item x="190"/>
-        <item x="224"/>
-        <item x="149"/>
-        <item x="143"/>
-        <item x="60"/>
-        <item x="8"/>
-        <item x="128"/>
-        <item x="61"/>
-        <item x="165"/>
-        <item x="214"/>
-        <item x="62"/>
-        <item x="197"/>
-        <item x="225"/>
-        <item x="58"/>
-        <item x="131"/>
-        <item x="130"/>
-        <item x="38"/>
-        <item x="226"/>
-        <item x="152"/>
-        <item x="72"/>
-        <item x="136"/>
-        <item x="150"/>
-        <item x="127"/>
-        <item x="133"/>
-        <item x="77"/>
-        <item x="208"/>
-        <item x="79"/>
-        <item x="189"/>
-        <item x="15"/>
-        <item x="114"/>
-        <item x="134"/>
-        <item x="209"/>
-        <item x="30"/>
-        <item x="116"/>
-        <item x="135"/>
-        <item x="57"/>
-        <item x="172"/>
-        <item x="31"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="138"/>
-        <item x="74"/>
-        <item x="78"/>
-        <item x="81"/>
-        <item x="177"/>
-        <item x="73"/>
-        <item x="32"/>
-        <item x="115"/>
-        <item x="178"/>
-        <item x="95"/>
-        <item x="118"/>
-        <item x="142"/>
-        <item x="87"/>
-        <item x="174"/>
-        <item x="0"/>
-        <item x="82"/>
-        <item x="76"/>
-        <item x="132"/>
-        <item x="19"/>
-        <item x="191"/>
-        <item x="25"/>
-        <item x="83"/>
-        <item x="176"/>
-        <item x="227"/>
-        <item x="192"/>
-        <item x="179"/>
-        <item x="34"/>
-        <item x="109"/>
-        <item x="220"/>
-        <item x="228"/>
-        <item x="119"/>
-        <item x="89"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="173"/>
-        <item x="10"/>
-        <item x="151"/>
-        <item x="88"/>
-        <item x="67"/>
-        <item x="193"/>
-        <item x="91"/>
-        <item x="210"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="97"/>
-        <item x="110"/>
-        <item x="26"/>
-        <item x="181"/>
-        <item x="137"/>
-        <item x="86"/>
-        <item x="215"/>
-        <item x="27"/>
-        <item x="96"/>
-        <item x="100"/>
-        <item x="121"/>
-        <item x="111"/>
-        <item x="4"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="18"/>
-        <item x="101"/>
-        <item x="144"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="80"/>
-        <item x="117"/>
-        <item x="200"/>
-        <item x="123"/>
-        <item x="113"/>
-        <item x="199"/>
-        <item x="158"/>
-        <item x="102"/>
-        <item x="99"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="120"/>
-        <item x="75"/>
-        <item x="71"/>
-        <item x="145"/>
-        <item x="232"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="217"/>
-        <item x="105"/>
-        <item x="221"/>
-        <item x="146"/>
-        <item x="53"/>
-        <item x="180"/>
-        <item x="104"/>
-        <item x="175"/>
-        <item x="33"/>
-        <item x="202"/>
-        <item x="159"/>
-        <item x="216"/>
-        <item x="223"/>
-        <item x="219"/>
-        <item x="167"/>
-        <item x="106"/>
-        <item x="63"/>
-        <item x="107"/>
-        <item x="182"/>
-        <item x="50"/>
-        <item x="85"/>
-        <item x="160"/>
-        <item x="90"/>
-        <item x="148"/>
-        <item x="51"/>
-        <item x="169"/>
-        <item x="3"/>
-        <item x="28"/>
-        <item x="194"/>
-        <item x="168"/>
-        <item x="162"/>
-        <item x="112"/>
-        <item x="183"/>
-        <item x="98"/>
-        <item x="44"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="13"/>
-        <item x="231"/>
-        <item x="201"/>
-        <item x="66"/>
-        <item x="222"/>
-        <item x="171"/>
-        <item x="103"/>
-        <item x="122"/>
-        <item x="70"/>
-        <item x="153"/>
-        <item x="155"/>
-        <item x="185"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="218"/>
-        <item x="154"/>
-        <item x="147"/>
-        <item x="203"/>
-        <item x="161"/>
-        <item x="157"/>
-        <item x="52"/>
-        <item x="108"/>
-        <item x="207"/>
-        <item x="205"/>
-        <item x="204"/>
-        <item x="170"/>
-        <item x="48"/>
-        <item x="20"/>
-        <item x="184"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="156"/>
-        <item x="47"/>
-        <item x="206"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="226">
-        <item x="221"/>
-        <item x="5"/>
-        <item x="201"/>
-        <item x="55"/>
-        <item x="202"/>
-        <item x="182"/>
-        <item x="153"/>
-        <item x="35"/>
-        <item x="222"/>
-        <item x="213"/>
-        <item x="40"/>
-        <item x="59"/>
-        <item x="154"/>
-        <item x="173"/>
-        <item x="6"/>
-        <item x="36"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="183"/>
-        <item x="42"/>
-        <item x="44"/>
-        <item x="174"/>
-        <item x="224"/>
-        <item x="125"/>
-        <item x="122"/>
-        <item x="121"/>
-        <item x="140"/>
-        <item x="37"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="204"/>
-        <item x="175"/>
-        <item x="89"/>
-        <item x="77"/>
-        <item x="132"/>
-        <item x="131"/>
-        <item x="223"/>
-        <item x="185"/>
-        <item x="196"/>
-        <item x="43"/>
-        <item x="90"/>
-        <item x="41"/>
-        <item x="177"/>
-        <item x="126"/>
-        <item x="214"/>
-        <item x="39"/>
-        <item x="73"/>
-        <item x="8"/>
-        <item x="30"/>
-        <item x="127"/>
-        <item x="155"/>
-        <item x="141"/>
-        <item x="60"/>
-        <item x="203"/>
-        <item x="134"/>
-        <item x="58"/>
-        <item x="16"/>
-        <item x="184"/>
-        <item x="124"/>
-        <item x="0"/>
-        <item x="129"/>
-        <item x="62"/>
-        <item x="198"/>
-        <item x="82"/>
-        <item x="38"/>
-        <item x="79"/>
-        <item x="92"/>
-        <item x="78"/>
-        <item x="86"/>
-        <item x="31"/>
-        <item x="160"/>
-        <item x="176"/>
-        <item x="164"/>
-        <item x="112"/>
-        <item x="123"/>
-        <item x="197"/>
-        <item x="200"/>
-        <item x="57"/>
-        <item x="128"/>
-        <item x="68"/>
-        <item x="17"/>
-        <item x="186"/>
-        <item x="161"/>
-        <item x="165"/>
-        <item x="114"/>
-        <item x="32"/>
-        <item x="10"/>
-        <item x="83"/>
-        <item x="74"/>
-        <item x="178"/>
-        <item x="93"/>
-        <item x="61"/>
-        <item x="215"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="135"/>
-        <item x="113"/>
-        <item x="81"/>
-        <item x="216"/>
-        <item x="11"/>
-        <item x="205"/>
-        <item x="179"/>
-        <item x="166"/>
-        <item x="91"/>
-        <item x="107"/>
-        <item x="133"/>
-        <item x="97"/>
-        <item x="2"/>
-        <item x="116"/>
-        <item x="88"/>
-        <item x="180"/>
-        <item x="163"/>
-        <item x="50"/>
-        <item x="34"/>
-        <item x="69"/>
-        <item x="26"/>
-        <item x="76"/>
-        <item x="87"/>
-        <item x="199"/>
-        <item x="130"/>
-        <item x="12"/>
-        <item x="108"/>
-        <item x="148"/>
-        <item x="142"/>
-        <item x="94"/>
-        <item x="102"/>
-        <item x="187"/>
-        <item x="63"/>
-        <item x="188"/>
-        <item x="85"/>
-        <item x="70"/>
-        <item x="118"/>
-        <item x="29"/>
-        <item x="217"/>
-        <item x="18"/>
-        <item x="117"/>
-        <item x="98"/>
-        <item x="27"/>
-        <item x="4"/>
-        <item x="136"/>
-        <item x="109"/>
-        <item x="209"/>
-        <item x="168"/>
-        <item x="156"/>
-        <item x="218"/>
-        <item x="99"/>
-        <item x="80"/>
-        <item x="137"/>
-        <item x="120"/>
-        <item x="96"/>
-        <item x="115"/>
-        <item x="191"/>
-        <item x="210"/>
-        <item x="75"/>
-        <item x="162"/>
-        <item x="206"/>
-        <item x="14"/>
-        <item x="72"/>
-        <item x="111"/>
-        <item x="45"/>
-        <item x="103"/>
-        <item x="207"/>
-        <item x="54"/>
-        <item x="149"/>
-        <item x="33"/>
-        <item x="220"/>
-        <item x="190"/>
-        <item x="51"/>
-        <item x="167"/>
-        <item x="143"/>
-        <item x="52"/>
-        <item x="84"/>
-        <item x="101"/>
-        <item x="104"/>
-        <item x="157"/>
-        <item x="208"/>
-        <item x="169"/>
-        <item x="212"/>
-        <item x="150"/>
-        <item x="139"/>
-        <item x="64"/>
-        <item x="181"/>
-        <item x="65"/>
-        <item x="13"/>
-        <item x="189"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="46"/>
-        <item x="28"/>
-        <item x="95"/>
-        <item x="152"/>
-        <item x="110"/>
-        <item x="211"/>
-        <item x="67"/>
-        <item x="145"/>
-        <item x="106"/>
-        <item x="144"/>
-        <item x="119"/>
-        <item x="47"/>
-        <item x="159"/>
-        <item x="219"/>
-        <item x="71"/>
-        <item x="192"/>
-        <item x="172"/>
-        <item x="100"/>
-        <item x="20"/>
-        <item x="193"/>
-        <item x="138"/>
-        <item x="147"/>
-        <item x="151"/>
-        <item x="53"/>
-        <item x="105"/>
-        <item x="195"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="158"/>
-        <item x="66"/>
-        <item x="49"/>
-        <item x="171"/>
-        <item x="24"/>
-        <item x="146"/>
-        <item x="48"/>
-        <item x="194"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="52">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Voter Population %" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17031,16 +17059,16 @@
   <dimension ref="A3:E310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E289" sqref="E289"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -17064,10 +17092,10 @@
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>461000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>351000</v>
       </c>
       <c r="D4" s="5">
@@ -17081,10 +17109,10 @@
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>61000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>38000</v>
       </c>
       <c r="D5" s="5">
@@ -17098,10 +17126,10 @@
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>133000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>102000</v>
       </c>
       <c r="D6" s="5">
@@ -17115,10 +17143,10 @@
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>67000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>55000</v>
       </c>
       <c r="D7" s="5">
@@ -17132,10 +17160,10 @@
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>129000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>99000</v>
       </c>
       <c r="D8" s="5">
@@ -17149,10 +17177,10 @@
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>71000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>57000</v>
       </c>
       <c r="D9" s="5">
@@ -17166,10 +17194,10 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>2130000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>1588000</v>
       </c>
       <c r="D10" s="5">
@@ -17183,10 +17211,10 @@
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>294000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>187000</v>
       </c>
       <c r="D11" s="5">
@@ -17200,10 +17228,10 @@
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>390000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>279000</v>
       </c>
       <c r="D12" s="5">
@@ -17217,10 +17245,10 @@
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>309000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>222000</v>
       </c>
       <c r="D13" s="5">
@@ -17234,10 +17262,10 @@
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>727000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>563000</v>
       </c>
       <c r="D14" s="5">
@@ -17251,10 +17279,10 @@
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>410000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>337000</v>
       </c>
       <c r="D15" s="5">
@@ -17268,10 +17296,10 @@
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>4247000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="9">
         <v>3128000</v>
       </c>
       <c r="D16" s="5">
@@ -17285,10 +17313,10 @@
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <v>513000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>287000</v>
       </c>
       <c r="D17" s="5">
@@ -17302,10 +17330,10 @@
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>662000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>438000</v>
       </c>
       <c r="D18" s="5">
@@ -17319,10 +17347,10 @@
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="9">
         <v>695000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>514000</v>
       </c>
       <c r="D19" s="5">
@@ -17336,10 +17364,10 @@
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="9">
         <v>1532000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <v>1192000</v>
       </c>
       <c r="D20" s="5">
@@ -17353,10 +17381,10 @@
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="9">
         <v>845000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="9">
         <v>697000</v>
       </c>
       <c r="D21" s="5">
@@ -17370,10 +17398,10 @@
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="9">
         <v>3903000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>2859000</v>
       </c>
       <c r="D22" s="5">
@@ -17387,10 +17415,10 @@
       <c r="A23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="9">
         <v>510000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>303000</v>
       </c>
       <c r="D23" s="5">
@@ -17404,10 +17432,10 @@
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="9">
         <v>596000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <v>384000</v>
       </c>
       <c r="D24" s="5">
@@ -17421,10 +17449,10 @@
       <c r="A25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="9">
         <v>659000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="9">
         <v>478000</v>
       </c>
       <c r="D25" s="5">
@@ -17438,10 +17466,10 @@
       <c r="A26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="9">
         <v>1387000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="9">
         <v>1081000</v>
       </c>
       <c r="D26" s="5">
@@ -17455,10 +17483,10 @@
       <c r="A27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="9">
         <v>751000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="9">
         <v>613000</v>
       </c>
       <c r="D27" s="5">
@@ -17472,10 +17500,10 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="9">
         <v>4773000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="9">
         <v>3382000</v>
       </c>
       <c r="D28" s="5">
@@ -17489,10 +17517,10 @@
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="9">
         <v>633000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="9">
         <v>316000</v>
       </c>
       <c r="D29" s="5">
@@ -17506,10 +17534,10 @@
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="9">
         <v>705000</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="9">
         <v>450000</v>
       </c>
       <c r="D30" s="5">
@@ -17523,10 +17551,10 @@
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="9">
         <v>783000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="9">
         <v>530000</v>
       </c>
       <c r="D31" s="5">
@@ -17540,10 +17568,10 @@
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="9">
         <v>1677000</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="9">
         <v>1327000</v>
       </c>
       <c r="D32" s="5">
@@ -17557,10 +17585,10 @@
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="9">
         <v>975000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="9">
         <v>759000</v>
       </c>
       <c r="D33" s="5">
@@ -17574,10 +17602,10 @@
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="9">
         <v>3543000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>2495000</v>
       </c>
       <c r="D34" s="5">
@@ -17591,10 +17619,10 @@
       <c r="A35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="9">
         <v>461000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="9">
         <v>259000</v>
       </c>
       <c r="D35" s="5">
@@ -17608,10 +17636,10 @@
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="9">
         <v>602000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>363000</v>
       </c>
       <c r="D36" s="5">
@@ -17625,10 +17653,10 @@
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="9">
         <v>616000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>452000</v>
       </c>
       <c r="D37" s="5">
@@ -17642,10 +17670,10 @@
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="9">
         <v>1287000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="9">
         <v>989000</v>
       </c>
       <c r="D38" s="5">
@@ -17659,10 +17687,10 @@
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="9">
         <v>577000</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>432000</v>
       </c>
       <c r="D39" s="5">
@@ -17674,13 +17702,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>2232000</v>
-      </c>
-      <c r="C40">
-        <v>1548000</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="9">
+        <v>992000</v>
+      </c>
+      <c r="C40" s="9">
+        <v>688000</v>
       </c>
       <c r="D40" s="5">
         <v>0.69354838709677424</v>
@@ -17693,96 +17721,96 @@
       <c r="A41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B41">
-        <v>243000</v>
-      </c>
-      <c r="C41">
-        <v>121000</v>
+      <c r="B41" s="9">
+        <v>119000</v>
+      </c>
+      <c r="C41" s="9">
+        <v>61000</v>
       </c>
       <c r="D41" s="5">
-        <v>0.49794238683127573</v>
+        <v>0.51260504201680668</v>
       </c>
       <c r="E41" s="7">
-        <v>7.8165374677002589E-2</v>
+        <v>8.8662790697674423E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B42">
-        <v>379000</v>
-      </c>
-      <c r="C42">
-        <v>238000</v>
+      <c r="B42" s="9">
+        <v>147000</v>
+      </c>
+      <c r="C42" s="9">
+        <v>91000</v>
       </c>
       <c r="D42" s="5">
-        <v>0.62796833773087068</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="E42" s="7">
-        <v>0.15374677002583978</v>
+        <v>0.13226744186046513</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B43">
-        <v>358000</v>
-      </c>
-      <c r="C43">
-        <v>238000</v>
+      <c r="B43" s="9">
+        <v>143000</v>
+      </c>
+      <c r="C43" s="9">
+        <v>90000</v>
       </c>
       <c r="D43" s="5">
-        <v>0.66480446927374304</v>
+        <v>0.62937062937062938</v>
       </c>
       <c r="E43" s="7">
-        <v>0.15374677002583978</v>
+        <v>0.1308139534883721</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B44">
-        <v>812000</v>
-      </c>
-      <c r="C44">
-        <v>586000</v>
+      <c r="B44" s="9">
+        <v>414000</v>
+      </c>
+      <c r="C44" s="9">
+        <v>312000</v>
       </c>
       <c r="D44" s="5">
-        <v>0.72167487684729059</v>
+        <v>0.75362318840579712</v>
       </c>
       <c r="E44" s="7">
-        <v>0.37855297157622741</v>
+        <v>0.45348837209302323</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B45">
-        <v>440000</v>
-      </c>
-      <c r="C45">
-        <v>365000</v>
+      <c r="B45" s="9">
+        <v>169000</v>
+      </c>
+      <c r="C45" s="9">
+        <v>134000</v>
       </c>
       <c r="D45" s="5">
-        <v>0.82954545454545459</v>
+        <v>0.79289940828402372</v>
       </c>
       <c r="E45" s="7">
-        <v>0.23578811369509045</v>
+        <v>0.19476744186046513</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46">
-        <v>992000</v>
-      </c>
-      <c r="C46">
-        <v>688000</v>
+        <v>41</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2232000</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1548000</v>
       </c>
       <c r="D46" s="5">
         <v>0.69354838709677424</v>
@@ -17795,95 +17823,95 @@
       <c r="A47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B47">
-        <v>119000</v>
-      </c>
-      <c r="C47">
-        <v>61000</v>
+      <c r="B47" s="9">
+        <v>243000</v>
+      </c>
+      <c r="C47" s="9">
+        <v>121000</v>
       </c>
       <c r="D47" s="5">
-        <v>0.51260504201680668</v>
+        <v>0.49794238683127573</v>
       </c>
       <c r="E47" s="7">
-        <v>8.8662790697674423E-2</v>
+        <v>7.8165374677002589E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B48">
-        <v>147000</v>
-      </c>
-      <c r="C48">
-        <v>91000</v>
+      <c r="B48" s="9">
+        <v>379000</v>
+      </c>
+      <c r="C48" s="9">
+        <v>238000</v>
       </c>
       <c r="D48" s="5">
-        <v>0.61904761904761907</v>
+        <v>0.62796833773087068</v>
       </c>
       <c r="E48" s="7">
-        <v>0.13226744186046513</v>
+        <v>0.15374677002583978</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B49">
-        <v>143000</v>
-      </c>
-      <c r="C49">
-        <v>90000</v>
+      <c r="B49" s="9">
+        <v>358000</v>
+      </c>
+      <c r="C49" s="9">
+        <v>238000</v>
       </c>
       <c r="D49" s="5">
-        <v>0.62937062937062938</v>
+        <v>0.66480446927374304</v>
       </c>
       <c r="E49" s="7">
-        <v>0.1308139534883721</v>
+        <v>0.15374677002583978</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B50">
-        <v>414000</v>
-      </c>
-      <c r="C50">
-        <v>312000</v>
+      <c r="B50" s="9">
+        <v>812000</v>
+      </c>
+      <c r="C50" s="9">
+        <v>586000</v>
       </c>
       <c r="D50" s="5">
-        <v>0.75362318840579712</v>
+        <v>0.72167487684729059</v>
       </c>
       <c r="E50" s="7">
-        <v>0.45348837209302323</v>
+        <v>0.37855297157622741</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B51">
-        <v>169000</v>
-      </c>
-      <c r="C51">
-        <v>134000</v>
+      <c r="B51" s="9">
+        <v>440000</v>
+      </c>
+      <c r="C51" s="9">
+        <v>365000</v>
       </c>
       <c r="D51" s="5">
-        <v>0.79289940828402372</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="E51" s="7">
-        <v>0.19476744186046513</v>
+        <v>0.23578811369509045</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="9">
         <v>6711000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="9">
         <v>4624000</v>
       </c>
       <c r="D52" s="5">
@@ -17897,10 +17925,10 @@
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="9">
         <v>779000</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="9">
         <v>389000</v>
       </c>
       <c r="D53" s="5">
@@ -17914,10 +17942,10 @@
       <c r="A54" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="9">
         <v>1021000</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>676000</v>
       </c>
       <c r="D54" s="5">
@@ -17931,10 +17959,10 @@
       <c r="A55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="9">
         <v>1172000</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="9">
         <v>792000</v>
       </c>
       <c r="D55" s="5">
@@ -17948,10 +17976,10 @@
       <c r="A56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="9">
         <v>2373000</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="9">
         <v>1710000</v>
       </c>
       <c r="D56" s="5">
@@ -17965,10 +17993,10 @@
       <c r="A57" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="9">
         <v>1366000</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="9">
         <v>1057000</v>
       </c>
       <c r="D57" s="5">
@@ -17982,10 +18010,10 @@
       <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="9">
         <v>1020000</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="9">
         <v>699000</v>
       </c>
       <c r="D58" s="5">
@@ -17999,10 +18027,10 @@
       <c r="A59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="9">
         <v>118000</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="9">
         <v>50000</v>
       </c>
       <c r="D59" s="5">
@@ -18016,10 +18044,10 @@
       <c r="A60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="9">
         <v>131000</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="9">
         <v>78000</v>
       </c>
       <c r="D60" s="5">
@@ -18033,10 +18061,10 @@
       <c r="A61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="9">
         <v>149000</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="9">
         <v>101000</v>
       </c>
       <c r="D61" s="5">
@@ -18050,10 +18078,10 @@
       <c r="A62" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="9">
         <v>407000</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="9">
         <v>300000</v>
       </c>
       <c r="D62" s="5">
@@ -18067,10 +18095,10 @@
       <c r="A63" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="9">
         <v>215000</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="9">
         <v>170000</v>
       </c>
       <c r="D63" s="5">
@@ -18084,10 +18112,10 @@
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="9">
         <v>2807000</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="9">
         <v>1897000</v>
       </c>
       <c r="D64" s="5">
@@ -18101,10 +18129,10 @@
       <c r="A65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="9">
         <v>364000</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="9">
         <v>186000</v>
       </c>
       <c r="D65" s="5">
@@ -18118,10 +18146,10 @@
       <c r="A66" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="9">
         <v>399000</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="9">
         <v>215000</v>
       </c>
       <c r="D66" s="5">
@@ -18135,10 +18163,10 @@
       <c r="A67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="9">
         <v>479000</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="9">
         <v>296000</v>
       </c>
       <c r="D67" s="5">
@@ -18152,10 +18180,10 @@
       <c r="A68" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="9">
         <v>961000</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="9">
         <v>709000</v>
       </c>
       <c r="D68" s="5">
@@ -18169,10 +18197,10 @@
       <c r="A69" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="9">
         <v>604000</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="9">
         <v>491000</v>
       </c>
       <c r="D69" s="5">
@@ -18186,10 +18214,10 @@
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="9">
         <v>642000</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="9">
         <v>430000</v>
       </c>
       <c r="D70" s="5">
@@ -18203,10 +18231,10 @@
       <c r="A71" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="9">
         <v>77000</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="9">
         <v>33000</v>
       </c>
       <c r="D71" s="5">
@@ -18220,10 +18248,10 @@
       <c r="A72" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="9">
         <v>86000</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>49000</v>
       </c>
       <c r="D72" s="5">
@@ -18237,10 +18265,10 @@
       <c r="A73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="9">
         <v>102000</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="9">
         <v>67000</v>
       </c>
       <c r="D73" s="5">
@@ -18254,10 +18282,10 @@
       <c r="A74" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="9">
         <v>232000</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="9">
         <v>168000</v>
       </c>
       <c r="D74" s="5">
@@ -18271,10 +18299,10 @@
       <c r="A75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="9">
         <v>145000</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="9">
         <v>113000</v>
       </c>
       <c r="D75" s="5">
@@ -18288,10 +18316,10 @@
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="9">
         <v>5646000</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="9">
         <v>3778000</v>
       </c>
       <c r="D76" s="5">
@@ -18305,10 +18333,10 @@
       <c r="A77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="9">
         <v>612000</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="9">
         <v>292000</v>
       </c>
       <c r="D77" s="5">
@@ -18322,10 +18350,10 @@
       <c r="A78" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="9">
         <v>1026000</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="9">
         <v>605000</v>
       </c>
       <c r="D78" s="5">
@@ -18339,10 +18367,10 @@
       <c r="A79" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="9">
         <v>889000</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="9">
         <v>634000</v>
       </c>
       <c r="D79" s="5">
@@ -18356,10 +18384,10 @@
       <c r="A80" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="9">
         <v>2050000</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="9">
         <v>1473000</v>
       </c>
       <c r="D80" s="5">
@@ -18373,10 +18401,10 @@
       <c r="A81" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="9">
         <v>1069000</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="9">
         <v>774000</v>
       </c>
       <c r="D81" s="5">
@@ -18390,10 +18418,10 @@
       <c r="A82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="9">
         <v>7228000</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="9">
         <v>4831000</v>
       </c>
       <c r="D82" s="5">
@@ -18407,10 +18435,10 @@
       <c r="A83" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="9">
         <v>894000</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="9">
         <v>394000</v>
       </c>
       <c r="D83" s="5">
@@ -18424,10 +18452,10 @@
       <c r="A84" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="9">
         <v>1107000</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="9">
         <v>629000</v>
       </c>
       <c r="D84" s="5">
@@ -18441,10 +18469,10 @@
       <c r="A85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="9">
         <v>1136000</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="9">
         <v>768000</v>
       </c>
       <c r="D85" s="5">
@@ -18458,10 +18486,10 @@
       <c r="A86" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="9">
         <v>2611000</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="9">
         <v>1906000</v>
       </c>
       <c r="D86" s="5">
@@ -18475,10 +18503,10 @@
       <c r="A87" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="9">
         <v>1480000</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="9">
         <v>1134000</v>
       </c>
       <c r="D87" s="5">
@@ -18492,10 +18520,10 @@
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="9">
         <v>3239000</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="9">
         <v>2149000</v>
       </c>
       <c r="D88" s="5">
@@ -18509,10 +18537,10 @@
       <c r="A89" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="9">
         <v>415000</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="9">
         <v>174000</v>
       </c>
       <c r="D89" s="5">
@@ -18526,10 +18554,10 @@
       <c r="A90" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="9">
         <v>552000</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="9">
         <v>369000</v>
       </c>
       <c r="D90" s="5">
@@ -18543,10 +18571,10 @@
       <c r="A91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="9">
         <v>526000</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="9">
         <v>340000</v>
       </c>
       <c r="D91" s="5">
@@ -18560,10 +18588,10 @@
       <c r="A92" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="9">
         <v>1184000</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="9">
         <v>846000</v>
       </c>
       <c r="D92" s="5">
@@ -18577,10 +18605,10 @@
       <c r="A93" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="9">
         <v>562000</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="9">
         <v>420000</v>
       </c>
       <c r="D93" s="5">
@@ -18594,10 +18622,10 @@
       <c r="A94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="9">
         <v>754000</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="9">
         <v>495000</v>
       </c>
       <c r="D94" s="5">
@@ -18611,10 +18639,10 @@
       <c r="A95" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="9">
         <v>79000</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="9">
         <v>33000</v>
       </c>
       <c r="D95" s="5">
@@ -18628,10 +18656,10 @@
       <c r="A96" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="9">
         <v>137000</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="9">
         <v>65000</v>
       </c>
       <c r="D96" s="5">
@@ -18645,10 +18673,10 @@
       <c r="A97" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="9">
         <v>105000</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="9">
         <v>62000</v>
       </c>
       <c r="D97" s="5">
@@ -18662,10 +18690,10 @@
       <c r="A98" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="9">
         <v>249000</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="9">
         <v>189000</v>
       </c>
       <c r="D98" s="5">
@@ -18679,10 +18707,10 @@
       <c r="A99" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="9">
         <v>184000</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="9">
         <v>146000</v>
       </c>
       <c r="D99" s="5">
@@ -18696,10 +18724,10 @@
       <c r="A100" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="9">
         <v>4833000</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="9">
         <v>3172000</v>
       </c>
       <c r="D100" s="5">
@@ -18713,10 +18741,10 @@
       <c r="A101" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="9">
         <v>511000</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="9">
         <v>215000</v>
       </c>
       <c r="D101" s="5">
@@ -18730,10 +18758,10 @@
       <c r="A102" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="9">
         <v>911000</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="9">
         <v>488000</v>
       </c>
       <c r="D102" s="5">
@@ -18747,10 +18775,10 @@
       <c r="A103" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="9">
         <v>809000</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="9">
         <v>577000</v>
       </c>
       <c r="D103" s="5">
@@ -18764,10 +18792,10 @@
       <c r="A104" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="9">
         <v>1570000</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="9">
         <v>1101000</v>
       </c>
       <c r="D104" s="5">
@@ -18781,10 +18809,10 @@
       <c r="A105" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="9">
         <v>1032000</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="9">
         <v>791000</v>
       </c>
       <c r="D105" s="5">
@@ -18798,10 +18826,10 @@
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="9">
         <v>4006000</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="9">
         <v>2610000</v>
       </c>
       <c r="D106" s="5">
@@ -18815,10 +18843,10 @@
       <c r="A107" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="9">
         <v>558000</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="9">
         <v>246000</v>
       </c>
       <c r="D107" s="5">
@@ -18832,10 +18860,10 @@
       <c r="A108" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="9">
         <v>621000</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="9">
         <v>393000</v>
       </c>
       <c r="D108" s="5">
@@ -18849,10 +18877,10 @@
       <c r="A109" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="9">
         <v>590000</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="9">
         <v>396000</v>
       </c>
       <c r="D109" s="5">
@@ -18866,10 +18894,10 @@
       <c r="A110" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="9">
         <v>1450000</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="9">
         <v>1025000</v>
       </c>
       <c r="D110" s="5">
@@ -18883,10 +18911,10 @@
       <c r="A111" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="9">
         <v>787000</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="9">
         <v>550000</v>
       </c>
       <c r="D111" s="5">
@@ -18900,10 +18928,10 @@
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="9">
         <v>3381000</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="9">
         <v>2187000</v>
       </c>
       <c r="D112" s="5">
@@ -18917,10 +18945,10 @@
       <c r="A113" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="9">
         <v>451000</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="9">
         <v>243000</v>
       </c>
       <c r="D113" s="5">
@@ -18934,10 +18962,10 @@
       <c r="A114" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="9">
         <v>476000</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="9">
         <v>293000</v>
       </c>
       <c r="D114" s="5">
@@ -18951,10 +18979,10 @@
       <c r="A115" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="9">
         <v>561000</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="9">
         <v>343000</v>
       </c>
       <c r="D115" s="5">
@@ -18968,10 +18996,10 @@
       <c r="A116" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="9">
         <v>1289000</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="9">
         <v>866000</v>
       </c>
       <c r="D116" s="5">
@@ -18985,10 +19013,10 @@
       <c r="A117" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="9">
         <v>604000</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="9">
         <v>442000</v>
       </c>
       <c r="D117" s="5">
@@ -19002,10 +19030,10 @@
       <c r="A118" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="9">
         <v>4409000</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="9">
         <v>2818000</v>
       </c>
       <c r="D118" s="5">
@@ -19019,10 +19047,10 @@
       <c r="A119" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="9">
         <v>520000</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="9">
         <v>223000</v>
       </c>
       <c r="D119" s="5">
@@ -19036,10 +19064,10 @@
       <c r="A120" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="9">
         <v>809000</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="9">
         <v>448000</v>
       </c>
       <c r="D120" s="5">
@@ -19053,10 +19081,10 @@
       <c r="A121" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="9">
         <v>651000</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="9">
         <v>427000</v>
       </c>
       <c r="D121" s="5">
@@ -19070,10 +19098,10 @@
       <c r="A122" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="9">
         <v>1684000</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="9">
         <v>1175000</v>
       </c>
       <c r="D122" s="5">
@@ -19087,10 +19115,10 @@
       <c r="A123" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="9">
         <v>745000</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="9">
         <v>545000</v>
       </c>
       <c r="D123" s="5">
@@ -19104,10 +19132,10 @@
       <c r="A124" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="9">
         <v>1064000</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="9">
         <v>680000</v>
       </c>
       <c r="D124" s="5">
@@ -19121,10 +19149,10 @@
       <c r="A125" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="9">
         <v>121000</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="9">
         <v>39000</v>
       </c>
       <c r="D125" s="5">
@@ -19138,10 +19166,10 @@
       <c r="A126" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="9">
         <v>173000</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="9">
         <v>99000</v>
       </c>
       <c r="D126" s="5">
@@ -19155,10 +19183,10 @@
       <c r="A127" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="9">
         <v>187000</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="9">
         <v>132000</v>
       </c>
       <c r="D127" s="5">
@@ -19172,10 +19200,10 @@
       <c r="A128" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="9">
         <v>382000</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="9">
         <v>250000</v>
       </c>
       <c r="D128" s="5">
@@ -19189,10 +19217,10 @@
       <c r="A129" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="9">
         <v>201000</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="9">
         <v>160000</v>
       </c>
       <c r="D129" s="5">
@@ -19206,10 +19234,10 @@
       <c r="A130" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="9">
         <v>515000</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="9">
         <v>328000</v>
       </c>
       <c r="D130" s="5">
@@ -19223,10 +19251,10 @@
       <c r="A131" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="9">
         <v>66000</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="9">
         <v>32000</v>
       </c>
       <c r="D131" s="5">
@@ -19240,10 +19268,10 @@
       <c r="A132" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="9">
         <v>106000</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="9">
         <v>62000</v>
       </c>
       <c r="D132" s="5">
@@ -19257,10 +19285,10 @@
       <c r="A133" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="9">
         <v>69000</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="9">
         <v>44000</v>
       </c>
       <c r="D133" s="5">
@@ -19274,10 +19302,10 @@
       <c r="A134" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="9">
         <v>190000</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="9">
         <v>129000</v>
       </c>
       <c r="D134" s="5">
@@ -19291,10 +19319,10 @@
       <c r="A135" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="9">
         <v>84000</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="9">
         <v>61000</v>
       </c>
       <c r="D135" s="5">
@@ -19308,10 +19336,10 @@
       <c r="A136" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="9">
         <v>1974000</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="9">
         <v>1249000</v>
       </c>
       <c r="D136" s="5">
@@ -19325,10 +19353,10 @@
       <c r="A137" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="9">
         <v>262000</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="9">
         <v>88000</v>
       </c>
       <c r="D137" s="5">
@@ -19342,10 +19370,10 @@
       <c r="A138" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="9">
         <v>359000</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="9">
         <v>172000</v>
       </c>
       <c r="D138" s="5">
@@ -19359,10 +19387,10 @@
       <c r="A139" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="9">
         <v>269000</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="9">
         <v>169000</v>
       </c>
       <c r="D139" s="5">
@@ -19376,10 +19404,10 @@
       <c r="A140" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="9">
         <v>721000</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="9">
         <v>535000</v>
       </c>
       <c r="D140" s="5">
@@ -19393,10 +19421,10 @@
       <c r="A141" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="9">
         <v>363000</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="9">
         <v>285000</v>
       </c>
       <c r="D141" s="5">
@@ -19410,10 +19438,10 @@
       <c r="A142" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="9">
         <v>8550000</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="9">
         <v>5395000</v>
       </c>
       <c r="D142" s="5">
@@ -19427,10 +19455,10 @@
       <c r="A143" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="9">
         <v>1105000</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="9">
         <v>511000</v>
       </c>
       <c r="D143" s="5">
@@ -19444,10 +19472,10 @@
       <c r="A144" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="9">
         <v>1352000</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="9">
         <v>772000</v>
       </c>
       <c r="D144" s="5">
@@ -19461,10 +19489,10 @@
       <c r="A145" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="9">
         <v>1274000</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="9">
         <v>772000</v>
       </c>
       <c r="D145" s="5">
@@ -19478,10 +19506,10 @@
       <c r="A146" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="9">
         <v>3179000</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="9">
         <v>2159000</v>
       </c>
       <c r="D146" s="5">
@@ -19495,10 +19523,10 @@
       <c r="A147" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="9">
         <v>1640000</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="9">
         <v>1181000</v>
       </c>
       <c r="D147" s="5">
@@ -19512,10 +19540,10 @@
       <c r="A148" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="9">
         <v>487000</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="9">
         <v>307000</v>
       </c>
       <c r="D148" s="5">
@@ -19529,10 +19557,10 @@
       <c r="A149" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="9">
         <v>59000</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="9">
         <v>23000</v>
       </c>
       <c r="D149" s="5">
@@ -19546,10 +19574,10 @@
       <c r="A150" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="9">
         <v>68000</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="9">
         <v>30000</v>
       </c>
       <c r="D150" s="5">
@@ -19563,10 +19591,10 @@
       <c r="A151" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="9">
         <v>76000</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="9">
         <v>46000</v>
       </c>
       <c r="D151" s="5">
@@ -19580,10 +19608,10 @@
       <c r="A152" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="9">
         <v>193000</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="9">
         <v>133000</v>
       </c>
       <c r="D152" s="5">
@@ -19597,10 +19625,10 @@
       <c r="A153" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="9">
         <v>91000</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="9">
         <v>75000</v>
       </c>
       <c r="D153" s="5">
@@ -19614,10 +19642,10 @@
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="9">
         <v>2500000</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="9">
         <v>1569000</v>
       </c>
       <c r="D154" s="5">
@@ -19631,10 +19659,10 @@
       <c r="A155" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="9">
         <v>308000</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="9">
         <v>123000</v>
       </c>
       <c r="D155" s="5">
@@ -19648,10 +19676,10 @@
       <c r="A156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="9">
         <v>331000</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="9">
         <v>177000</v>
       </c>
       <c r="D156" s="5">
@@ -19665,10 +19693,10 @@
       <c r="A157" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="9">
         <v>382000</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="9">
         <v>223000</v>
       </c>
       <c r="D157" s="5">
@@ -19682,10 +19710,10 @@
       <c r="A158" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="9">
         <v>993000</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="9">
         <v>695000</v>
       </c>
       <c r="D158" s="5">
@@ -19699,10 +19727,10 @@
       <c r="A159" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="9">
         <v>486000</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="9">
         <v>351000</v>
       </c>
       <c r="D159" s="5">
@@ -19716,10 +19744,10 @@
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="9">
         <v>751000</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="9">
         <v>469000</v>
       </c>
       <c r="D160" s="5">
@@ -19733,10 +19761,10 @@
       <c r="A161" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="9">
         <v>89000</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="9">
         <v>45000</v>
       </c>
       <c r="D161" s="5">
@@ -19750,10 +19778,10 @@
       <c r="A162" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="9">
         <v>108000</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="9">
         <v>58000</v>
       </c>
       <c r="D162" s="5">
@@ -19767,10 +19795,10 @@
       <c r="A163" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="9">
         <v>127000</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="9">
         <v>76000</v>
       </c>
       <c r="D163" s="5">
@@ -19784,10 +19812,10 @@
       <c r="A164" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="9">
         <v>272000</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="9">
         <v>185000</v>
       </c>
       <c r="D164" s="5">
@@ -19801,10 +19829,10 @@
       <c r="A165" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="9">
         <v>155000</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="9">
         <v>105000</v>
       </c>
       <c r="D165" s="5">
@@ -19818,10 +19846,10 @@
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="9">
         <v>5929000</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="9">
         <v>3670000</v>
       </c>
       <c r="D166" s="5">
@@ -19835,10 +19863,10 @@
       <c r="A167" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="9">
         <v>707000</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="9">
         <v>276000</v>
       </c>
       <c r="D167" s="5">
@@ -19852,10 +19880,10 @@
       <c r="A168" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="9">
         <v>842000</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="9">
         <v>475000</v>
       </c>
       <c r="D168" s="5">
@@ -19869,10 +19897,10 @@
       <c r="A169" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="9">
         <v>939000</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="9">
         <v>536000</v>
       </c>
       <c r="D169" s="5">
@@ -19886,10 +19914,10 @@
       <c r="A170" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="9">
         <v>2217000</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="9">
         <v>1545000</v>
       </c>
       <c r="D170" s="5">
@@ -19903,10 +19931,10 @@
       <c r="A171" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="9">
         <v>1224000</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="9">
         <v>838000</v>
       </c>
       <c r="D171" s="5">
@@ -19920,10 +19948,10 @@
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="9">
         <v>3480000</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="9">
         <v>2154000</v>
       </c>
       <c r="D172" s="5">
@@ -19937,10 +19965,10 @@
       <c r="A173" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="9">
         <v>428000</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="9">
         <v>155000</v>
       </c>
       <c r="D173" s="5">
@@ -19954,10 +19982,10 @@
       <c r="A174" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="9">
         <v>535000</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="9">
         <v>271000</v>
       </c>
       <c r="D174" s="5">
@@ -19971,10 +19999,10 @@
       <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="9">
         <v>582000</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="9">
         <v>330000</v>
       </c>
       <c r="D175" s="5">
@@ -19988,10 +20016,10 @@
       <c r="A176" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="9">
         <v>1275000</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="9">
         <v>939000</v>
       </c>
       <c r="D176" s="5">
@@ -20005,10 +20033,10 @@
       <c r="A177" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="9">
         <v>660000</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="9">
         <v>459000</v>
       </c>
       <c r="D177" s="5">
@@ -20022,10 +20050,10 @@
       <c r="A178" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="9">
         <v>6738000</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="9">
         <v>4168000</v>
       </c>
       <c r="D178" s="5">
@@ -20039,10 +20067,10 @@
       <c r="A179" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="9">
         <v>867000</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="9">
         <v>349000</v>
       </c>
       <c r="D179" s="5">
@@ -20056,10 +20084,10 @@
       <c r="A180" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="9">
         <v>1148000</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="9">
         <v>700000</v>
       </c>
       <c r="D180" s="5">
@@ -20073,10 +20101,10 @@
       <c r="A181" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="9">
         <v>1228000</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="9">
         <v>726000</v>
       </c>
       <c r="D181" s="5">
@@ -20090,10 +20118,10 @@
       <c r="A182" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="9">
         <v>2547000</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="9">
         <v>1741000</v>
       </c>
       <c r="D182" s="5">
@@ -20107,10 +20135,10 @@
       <c r="A183" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="9">
         <v>948000</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="9">
         <v>652000</v>
       </c>
       <c r="D183" s="5">
@@ -20124,10 +20152,10 @@
       <c r="A184" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="9">
         <v>9451000</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="9">
         <v>5824000</v>
       </c>
       <c r="D184" s="5">
@@ -20141,10 +20169,10 @@
       <c r="A185" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="9">
         <v>1137000</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="9">
         <v>478000</v>
       </c>
       <c r="D185" s="5">
@@ -20158,10 +20186,10 @@
       <c r="A186" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="9">
         <v>1442000</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="9">
         <v>790000</v>
       </c>
       <c r="D186" s="5">
@@ -20175,10 +20203,10 @@
       <c r="A187" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="9">
         <v>1442000</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="9">
         <v>928000</v>
       </c>
       <c r="D187" s="5">
@@ -20192,10 +20220,10 @@
       <c r="A188" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="9">
         <v>3547000</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="9">
         <v>2331000</v>
       </c>
       <c r="D188" s="5">
@@ -20209,10 +20237,10 @@
       <c r="A189" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="9">
         <v>1883000</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="9">
         <v>1297000</v>
       </c>
       <c r="D189" s="5">
@@ -20226,10 +20254,10 @@
       <c r="A190" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="9">
         <v>1297000</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="9">
         <v>799000</v>
       </c>
       <c r="D190" s="5">
@@ -20243,10 +20271,10 @@
       <c r="A191" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="9">
         <v>151000</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="9">
         <v>61000</v>
       </c>
       <c r="D191" s="5">
@@ -20260,10 +20288,10 @@
       <c r="A192" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="9">
         <v>224000</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="9">
         <v>110000</v>
       </c>
       <c r="D192" s="5">
@@ -20277,10 +20305,10 @@
       <c r="A193" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="9">
         <v>218000</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="9">
         <v>128000</v>
       </c>
       <c r="D193" s="5">
@@ -20294,10 +20322,10 @@
       <c r="A194" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="9">
         <v>445000</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="9">
         <v>300000</v>
       </c>
       <c r="D194" s="5">
@@ -20311,10 +20339,10 @@
       <c r="A195" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="9">
         <v>259000</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="9">
         <v>200000</v>
       </c>
       <c r="D195" s="5">
@@ -20328,10 +20356,10 @@
       <c r="A196" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="9">
         <v>1426000</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="9">
         <v>878000</v>
       </c>
       <c r="D196" s="5">
@@ -20345,10 +20373,10 @@
       <c r="A197" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="9">
         <v>163000</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="9">
         <v>66000</v>
       </c>
       <c r="D197" s="5">
@@ -20362,10 +20390,10 @@
       <c r="A198" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="9">
         <v>248000</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="9">
         <v>130000</v>
       </c>
       <c r="D198" s="5">
@@ -20379,10 +20407,10 @@
       <c r="A199" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="9">
         <v>224000</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="9">
         <v>123000</v>
       </c>
       <c r="D199" s="5">
@@ -20396,10 +20424,10 @@
       <c r="A200" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="9">
         <v>551000</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="9">
         <v>390000</v>
       </c>
       <c r="D200" s="5">
@@ -20413,10 +20441,10 @@
       <c r="A201" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="9">
         <v>240000</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="9">
         <v>169000</v>
       </c>
       <c r="D201" s="5">
@@ -20430,10 +20458,10 @@
       <c r="A202" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="9">
         <v>8831000</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="9">
         <v>5428000</v>
       </c>
       <c r="D202" s="5">
@@ -20447,10 +20475,10 @@
       <c r="A203" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="9">
         <v>1122000</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="9">
         <v>396000</v>
       </c>
       <c r="D203" s="5">
@@ -20464,10 +20492,10 @@
       <c r="A204" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="9">
         <v>1480000</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="9">
         <v>846000</v>
       </c>
       <c r="D204" s="5">
@@ -20481,10 +20509,10 @@
       <c r="A205" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="9">
         <v>1481000</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="9">
         <v>872000</v>
       </c>
       <c r="D205" s="5">
@@ -20498,10 +20526,10 @@
       <c r="A206" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="9">
         <v>3182000</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="9">
         <v>2206000</v>
       </c>
       <c r="D206" s="5">
@@ -20515,10 +20543,10 @@
       <c r="A207" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="9">
         <v>1566000</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="9">
         <v>1108000</v>
       </c>
       <c r="D207" s="5">
@@ -20532,10 +20560,10 @@
       <c r="A208" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="9">
         <v>606000</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="9">
         <v>371000</v>
       </c>
       <c r="D208" s="5">
@@ -20549,10 +20577,10 @@
       <c r="A209" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="9">
         <v>94000</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="9">
         <v>31000</v>
       </c>
       <c r="D209" s="5">
@@ -20566,10 +20594,10 @@
       <c r="A210" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="9">
         <v>101000</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="9">
         <v>46000</v>
       </c>
       <c r="D210" s="5">
@@ -20583,10 +20611,10 @@
       <c r="A211" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="9">
         <v>79000</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="9">
         <v>53000</v>
       </c>
       <c r="D211" s="5">
@@ -20600,10 +20628,10 @@
       <c r="A212" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="9">
         <v>202000</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="9">
         <v>145000</v>
       </c>
       <c r="D212" s="5">
@@ -20617,10 +20645,10 @@
       <c r="A213" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="9">
         <v>130000</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="9">
         <v>96000</v>
       </c>
       <c r="D213" s="5">
@@ -20634,10 +20662,10 @@
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="9">
         <v>13326000</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="9">
         <v>8107000</v>
       </c>
       <c r="D214" s="5">
@@ -20651,10 +20679,10 @@
       <c r="A215" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="9">
         <v>1467000</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="9">
         <v>614000</v>
       </c>
       <c r="D215" s="5">
@@ -20668,10 +20696,10 @@
       <c r="A216" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="9">
         <v>1903000</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="9">
         <v>987000</v>
       </c>
       <c r="D216" s="5">
@@ -20685,10 +20713,10 @@
       <c r="A217" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="9">
         <v>1960000</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="9">
         <v>1177000</v>
       </c>
       <c r="D217" s="5">
@@ -20702,10 +20730,10 @@
       <c r="A218" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="9">
         <v>4814000</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="9">
         <v>3107000</v>
       </c>
       <c r="D218" s="5">
@@ -20719,10 +20747,10 @@
       <c r="A219" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="9">
         <v>3182000</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="9">
         <v>2222000</v>
       </c>
       <c r="D219" s="5">
@@ -20736,10 +20764,10 @@
       <c r="A220" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="9">
         <v>3193000</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="9">
         <v>1895000</v>
       </c>
       <c r="D220" s="5">
@@ -20753,10 +20781,10 @@
       <c r="A221" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="9">
         <v>437000</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="9">
         <v>165000</v>
       </c>
       <c r="D221" s="5">
@@ -20770,10 +20798,10 @@
       <c r="A222" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="9">
         <v>462000</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="9">
         <v>235000</v>
       </c>
       <c r="D222" s="5">
@@ -20787,10 +20815,10 @@
       <c r="A223" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="9">
         <v>534000</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="9">
         <v>330000</v>
       </c>
       <c r="D223" s="5">
@@ -20804,10 +20832,10 @@
       <c r="A224" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="9">
         <v>1152000</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="9">
         <v>757000</v>
       </c>
       <c r="D224" s="5">
@@ -20821,10 +20849,10 @@
       <c r="A225" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="9">
         <v>608000</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="9">
         <v>408000</v>
       </c>
       <c r="D225" s="5">
@@ -20838,10 +20866,10 @@
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="9">
         <v>4724000</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="9">
         <v>2801000</v>
       </c>
       <c r="D226" s="5">
@@ -20855,10 +20883,10 @@
       <c r="A227" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="9">
         <v>558000</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="9">
         <v>203000</v>
       </c>
       <c r="D227" s="5">
@@ -20872,10 +20900,10 @@
       <c r="A228" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="9">
         <v>800000</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="9">
         <v>356000</v>
       </c>
       <c r="D228" s="5">
@@ -20889,10 +20917,10 @@
       <c r="A229" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="9">
         <v>801000</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="9">
         <v>420000</v>
       </c>
       <c r="D229" s="5">
@@ -20906,10 +20934,10 @@
       <c r="A230" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="9">
         <v>1733000</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="9">
         <v>1212000</v>
       </c>
       <c r="D230" s="5">
@@ -20923,10 +20951,10 @@
       <c r="A231" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="9">
         <v>832000</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="9">
         <v>610000</v>
       </c>
       <c r="D231" s="5">
@@ -20940,10 +20968,10 @@
       <c r="A232" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="9">
         <v>419000</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="9">
         <v>247000</v>
       </c>
       <c r="D232" s="5">
@@ -20957,10 +20985,10 @@
       <c r="A233" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="9">
         <v>55000</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="9">
         <v>18000</v>
       </c>
       <c r="D233" s="5">
@@ -20974,10 +21002,10 @@
       <c r="A234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="9">
         <v>71000</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="9">
         <v>39000</v>
       </c>
       <c r="D234" s="5">
@@ -20991,10 +21019,10 @@
       <c r="A235" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="9">
         <v>66000</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="9">
         <v>36000</v>
       </c>
       <c r="D235" s="5">
@@ -21008,10 +21036,10 @@
       <c r="A236" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="9">
         <v>154000</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="9">
         <v>95000</v>
       </c>
       <c r="D236" s="5">
@@ -21025,10 +21053,10 @@
       <c r="A237" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="9">
         <v>73000</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="9">
         <v>59000</v>
       </c>
       <c r="D237" s="5">
@@ -21042,10 +21070,10 @@
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="9">
         <v>13081000</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="9">
         <v>7676000</v>
       </c>
       <c r="D238" s="5">
@@ -21059,10 +21087,10 @@
       <c r="A239" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="9">
         <v>1790000</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="9">
         <v>710000</v>
       </c>
       <c r="D239" s="5">
@@ -21076,10 +21104,10 @@
       <c r="A240" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="9">
         <v>2171000</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="9">
         <v>1145000</v>
       </c>
       <c r="D240" s="5">
@@ -21093,10 +21121,10 @@
       <c r="A241" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="9">
         <v>1871000</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="9">
         <v>1133000</v>
       </c>
       <c r="D241" s="5">
@@ -21110,10 +21138,10 @@
       <c r="A242" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="9">
         <v>4706000</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="9">
         <v>3046000</v>
       </c>
       <c r="D242" s="5">
@@ -21127,10 +21155,10 @@
       <c r="A243" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="9">
         <v>2543000</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="9">
         <v>1642000</v>
       </c>
       <c r="D243" s="5">
@@ -21144,10 +21172,10 @@
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="9">
         <v>495000</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="9">
         <v>289000</v>
       </c>
       <c r="D244" s="5">
@@ -21161,10 +21189,10 @@
       <c r="A245" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="9">
         <v>61000</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="9">
         <v>20000</v>
       </c>
       <c r="D245" s="5">
@@ -21178,10 +21206,10 @@
       <c r="A246" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="9">
         <v>103000</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="9">
         <v>46000</v>
       </c>
       <c r="D246" s="5">
@@ -21195,10 +21223,10 @@
       <c r="A247" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="9">
         <v>80000</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="9">
         <v>50000</v>
       </c>
       <c r="D247" s="5">
@@ -21212,10 +21240,10 @@
       <c r="A248" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="9">
         <v>182000</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="9">
         <v>122000</v>
       </c>
       <c r="D248" s="5">
@@ -21229,10 +21257,10 @@
       <c r="A249" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="9">
         <v>69000</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="9">
         <v>51000</v>
       </c>
       <c r="D249" s="5">
@@ -21246,10 +21274,10 @@
       <c r="A250" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="9">
         <v>1808000</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="9">
         <v>1048000</v>
       </c>
       <c r="D250" s="5">
@@ -21263,10 +21291,10 @@
       <c r="A251" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="9">
         <v>295000</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="9">
         <v>122000</v>
       </c>
       <c r="D251" s="5">
@@ -21280,10 +21308,10 @@
       <c r="A252" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="9">
         <v>310000</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="9">
         <v>158000</v>
       </c>
       <c r="D252" s="5">
@@ -21297,10 +21325,10 @@
       <c r="A253" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="9">
         <v>247000</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="9">
         <v>146000</v>
       </c>
       <c r="D253" s="5">
@@ -21314,10 +21342,10 @@
       <c r="A254" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="9">
         <v>606000</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="9">
         <v>376000</v>
       </c>
       <c r="D254" s="5">
@@ -21331,10 +21359,10 @@
       <c r="A255" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="9">
         <v>350000</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="9">
         <v>246000</v>
       </c>
       <c r="D255" s="5">
@@ -21348,10 +21376,10 @@
       <c r="A256" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="9">
         <v>23418000</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="9">
         <v>13463000</v>
       </c>
       <c r="D256" s="5">
@@ -21365,10 +21393,10 @@
       <c r="A257" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="9">
         <v>3479000</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="9">
         <v>1447000</v>
       </c>
       <c r="D257" s="5">
@@ -21382,10 +21410,10 @@
       <c r="A258" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="9">
         <v>4153000</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="9">
         <v>2070000</v>
       </c>
       <c r="D258" s="5">
@@ -21399,10 +21427,10 @@
       <c r="A259" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="9">
         <v>3675000</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="9">
         <v>2118000</v>
       </c>
       <c r="D259" s="5">
@@ -21416,10 +21444,10 @@
       <c r="A260" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="9">
         <v>7827000</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="9">
         <v>4926000</v>
       </c>
       <c r="D260" s="5">
@@ -21433,10 +21461,10 @@
       <c r="A261" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="9">
         <v>4284000</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="9">
         <v>2902000</v>
       </c>
       <c r="D261" s="5">
@@ -21450,10 +21478,10 @@
       <c r="A262" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="9">
         <v>1793000</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="9">
         <v>1022000</v>
       </c>
       <c r="D262" s="5">
@@ -21467,10 +21495,10 @@
       <c r="A263" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="9">
         <v>263000</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="9">
         <v>97000</v>
       </c>
       <c r="D263" s="5">
@@ -21484,10 +21512,10 @@
       <c r="A264" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="9">
         <v>407000</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="9">
         <v>194000</v>
       </c>
       <c r="D264" s="5">
@@ -21501,10 +21529,10 @@
       <c r="A265" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="9">
         <v>307000</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="9">
         <v>161000</v>
       </c>
       <c r="D265" s="5">
@@ -21518,10 +21546,10 @@
       <c r="A266" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="9">
         <v>576000</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="9">
         <v>375000</v>
       </c>
       <c r="D266" s="5">
@@ -21535,10 +21563,10 @@
       <c r="A267" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="9">
         <v>240000</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="9">
         <v>195000</v>
       </c>
       <c r="D267" s="5">
@@ -21552,10 +21580,10 @@
       <c r="A268" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="9">
         <v>4315000</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="9">
         <v>2412000</v>
       </c>
       <c r="D268" s="5">
@@ -21569,10 +21597,10 @@
       <c r="A269" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="9">
         <v>545000</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="9">
         <v>234000</v>
       </c>
       <c r="D269" s="5">
@@ -21586,10 +21614,10 @@
       <c r="A270" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="9">
         <v>709000</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="9">
         <v>289000</v>
       </c>
       <c r="D270" s="5">
@@ -21603,10 +21631,10 @@
       <c r="A271" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="9">
         <v>713000</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="9">
         <v>382000</v>
       </c>
       <c r="D271" s="5">
@@ -21620,10 +21648,10 @@
       <c r="A272" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="9">
         <v>1502000</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="9">
         <v>901000</v>
       </c>
       <c r="D272" s="5">
@@ -21637,10 +21665,10 @@
       <c r="A273" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="9">
         <v>846000</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="9">
         <v>606000</v>
       </c>
       <c r="D273" s="5">
@@ -21654,10 +21682,10 @@
       <c r="A274" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="9">
         <v>4678000</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="9">
         <v>2606000</v>
       </c>
       <c r="D274" s="5">
@@ -21671,10 +21699,10 @@
       <c r="A275" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="9">
         <v>590000</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="9">
         <v>207000</v>
       </c>
       <c r="D275" s="5">
@@ -21688,10 +21716,10 @@
       <c r="A276" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="9">
         <v>773000</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="9">
         <v>395000</v>
       </c>
       <c r="D276" s="5">
@@ -21705,10 +21733,10 @@
       <c r="A277" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="9">
         <v>739000</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="9">
         <v>402000</v>
       </c>
       <c r="D277" s="5">
@@ -21722,10 +21750,10 @@
       <c r="A278" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="9">
         <v>1563000</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="9">
         <v>904000</v>
       </c>
       <c r="D278" s="5">
@@ -21739,10 +21767,10 @@
       <c r="A279" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="9">
         <v>1013000</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="9">
         <v>698000</v>
       </c>
       <c r="D279" s="5">
@@ -21756,10 +21784,10 @@
       <c r="A280" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="9">
         <v>16062000</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="9">
         <v>8643000</v>
       </c>
       <c r="D280" s="5">
@@ -21773,10 +21801,10 @@
       <c r="A281" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="9">
         <v>2249000</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="9">
         <v>572000</v>
       </c>
       <c r="D281" s="5">
@@ -21790,10 +21818,10 @@
       <c r="A282" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="9">
         <v>2965000</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="9">
         <v>1228000</v>
       </c>
       <c r="D282" s="5">
@@ -21807,10 +21835,10 @@
       <c r="A283" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="9">
         <v>2748000</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="9">
         <v>1473000</v>
       </c>
       <c r="D283" s="5">
@@ -21824,10 +21852,10 @@
       <c r="A284" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="9">
         <v>5429000</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="9">
         <v>3399000</v>
       </c>
       <c r="D284" s="5">
@@ -21841,10 +21869,10 @@
       <c r="A285" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="9">
         <v>2671000</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="9">
         <v>1971000</v>
       </c>
       <c r="D285" s="5">
@@ -21858,10 +21886,10 @@
       <c r="A286" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="9">
         <v>2110000</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="9">
         <v>1124000</v>
       </c>
       <c r="D286" s="5">
@@ -21875,10 +21903,10 @@
       <c r="A287" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="9">
         <v>281000</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="9">
         <v>70000</v>
       </c>
       <c r="D287" s="5">
@@ -21892,10 +21920,10 @@
       <c r="A288" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="9">
         <v>336000</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="9">
         <v>140000</v>
       </c>
       <c r="D288" s="5">
@@ -21909,10 +21937,10 @@
       <c r="A289" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="9">
         <v>341000</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="9">
         <v>205000</v>
       </c>
       <c r="D289" s="5">
@@ -21926,10 +21954,10 @@
       <c r="A290" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="9">
         <v>704000</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="9">
         <v>442000</v>
       </c>
       <c r="D290" s="5">
@@ -21943,10 +21971,10 @@
       <c r="A291" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="9">
         <v>448000</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="9">
         <v>267000</v>
       </c>
       <c r="D291" s="5">
@@ -21960,10 +21988,10 @@
       <c r="A292" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="9">
         <v>2734000</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="9">
         <v>1431000</v>
       </c>
       <c r="D292" s="5">
@@ -21977,10 +22005,10 @@
       <c r="A293" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="9">
         <v>323000</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="9">
         <v>88000</v>
       </c>
       <c r="D293" s="5">
@@ -21994,10 +22022,10 @@
       <c r="A294" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="9">
         <v>540000</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="9">
         <v>184000</v>
       </c>
       <c r="D294" s="5">
@@ -22011,10 +22039,10 @@
       <c r="A295" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="9">
         <v>418000</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="9">
         <v>212000</v>
       </c>
       <c r="D295" s="5">
@@ -22028,10 +22056,10 @@
       <c r="A296" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="9">
         <v>980000</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="9">
         <v>602000</v>
       </c>
       <c r="D296" s="5">
@@ -22045,10 +22073,10 @@
       <c r="A297" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="9">
         <v>473000</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="9">
         <v>345000</v>
       </c>
       <c r="D297" s="5">
@@ -22062,10 +22090,10 @@
       <c r="A298" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="9">
         <v>930000</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="9">
         <v>481000</v>
       </c>
       <c r="D298" s="5">
@@ -22079,10 +22107,10 @@
       <c r="A299" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="9">
         <v>91000</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="9">
         <v>24000</v>
       </c>
       <c r="D299" s="5">
@@ -22096,10 +22124,10 @@
       <c r="A300" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="9">
         <v>154000</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="9">
         <v>55000</v>
       </c>
       <c r="D300" s="5">
@@ -22113,10 +22141,10 @@
       <c r="A301" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="9">
         <v>153000</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="9">
         <v>69000</v>
       </c>
       <c r="D301" s="5">
@@ -22130,10 +22158,10 @@
       <c r="A302" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="9">
         <v>317000</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="9">
         <v>196000</v>
       </c>
       <c r="D302" s="5">
@@ -22147,10 +22175,10 @@
       <c r="A303" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="9">
         <v>215000</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="9">
         <v>137000</v>
       </c>
       <c r="D303" s="5">
@@ -22164,10 +22192,10 @@
       <c r="A304" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="9">
         <v>1443000</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="9">
         <v>689000</v>
       </c>
       <c r="D304" s="5">
@@ -22181,10 +22209,10 @@
       <c r="A305" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="9">
         <v>162000</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="9">
         <v>37000</v>
       </c>
       <c r="D305" s="5">
@@ -22198,10 +22226,10 @@
       <c r="A306" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="9">
         <v>210000</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="9">
         <v>66000</v>
       </c>
       <c r="D306" s="5">
@@ -22215,10 +22243,10 @@
       <c r="A307" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="9">
         <v>237000</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="9">
         <v>111000</v>
       </c>
       <c r="D307" s="5">
@@ -22232,10 +22260,10 @@
       <c r="A308" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="9">
         <v>475000</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="9">
         <v>253000</v>
       </c>
       <c r="D308" s="5">
@@ -22249,10 +22277,10 @@
       <c r="A309" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="9">
         <v>359000</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="9">
         <v>222000</v>
       </c>
       <c r="D309" s="5">
@@ -22266,10 +22294,10 @@
       <c r="A310" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="9">
         <v>215085000</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="9">
         <v>132952000</v>
       </c>
       <c r="D310" s="5">
